--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品进口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品进口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,805 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>385.54446</v>
+        <v>704.76319</v>
       </c>
       <c r="C2" t="n">
-        <v>388.57757</v>
+        <v>621.322</v>
       </c>
       <c r="D2" t="n">
-        <v>86.86193</v>
+        <v>91.4873</v>
       </c>
       <c r="E2" t="n">
-        <v>404.99899</v>
+        <v>416.73161</v>
       </c>
       <c r="F2" t="n">
-        <v>393.39582</v>
+        <v>537.574</v>
       </c>
       <c r="G2" t="n">
-        <v>107.20699</v>
+        <v>138.39141</v>
       </c>
       <c r="H2" t="n">
-        <v>502.88122</v>
+        <v>988.68264</v>
       </c>
       <c r="I2" t="n">
-        <v>226.25205</v>
+        <v>244.71505</v>
       </c>
       <c r="J2" t="n">
-        <v>3443.84547</v>
+        <v>5370.06705</v>
       </c>
       <c r="K2" t="n">
-        <v>1131.17561</v>
+        <v>1864.48684</v>
       </c>
       <c r="L2" t="n">
-        <v>38.1153</v>
+        <v>33.52087</v>
       </c>
       <c r="M2" t="n">
-        <v>310.20242</v>
+        <v>581.65017</v>
       </c>
       <c r="N2" t="n">
-        <v>871.0496000000001</v>
+        <v>1326.49577</v>
       </c>
       <c r="O2" t="n">
-        <v>6134.36473</v>
+        <v>9029.32582</v>
       </c>
       <c r="P2" t="n">
-        <v>191.37813</v>
+        <v>291.05129</v>
       </c>
       <c r="Q2" t="n">
-        <v>702.89543</v>
+        <v>929.37793</v>
       </c>
       <c r="R2" t="n">
-        <v>401.46504</v>
+        <v>496.80185</v>
       </c>
       <c r="S2" t="n">
-        <v>774.38994</v>
+        <v>750.3757000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>3153.94851</v>
+        <v>4673.17911</v>
       </c>
       <c r="U2" t="n">
-        <v>357.32626</v>
+        <v>502.66313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>704.76319</v>
+        <v>1196.7644</v>
       </c>
       <c r="C3" t="n">
-        <v>621.322</v>
+        <v>683.9703</v>
       </c>
       <c r="D3" t="n">
-        <v>91.4873</v>
+        <v>139.3804</v>
       </c>
       <c r="E3" t="n">
-        <v>416.73161</v>
+        <v>728.4906999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>537.574</v>
+        <v>750.5436999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>138.39141</v>
+        <v>213.0075</v>
       </c>
       <c r="H3" t="n">
-        <v>988.68264</v>
+        <v>1029.4499</v>
       </c>
       <c r="I3" t="n">
-        <v>244.71505</v>
+        <v>474.605</v>
       </c>
       <c r="J3" t="n">
-        <v>5370.06705</v>
+        <v>8102.811</v>
       </c>
       <c r="K3" t="n">
-        <v>1864.48684</v>
+        <v>3403.5869</v>
       </c>
       <c r="L3" t="n">
-        <v>33.52087</v>
+        <v>42.7494</v>
       </c>
       <c r="M3" t="n">
-        <v>581.65017</v>
+        <v>682.3971</v>
       </c>
       <c r="N3" t="n">
-        <v>1326.49577</v>
+        <v>2365.3671</v>
       </c>
       <c r="O3" t="n">
-        <v>9029.32582</v>
+        <v>11506.1062</v>
       </c>
       <c r="P3" t="n">
-        <v>291.05129</v>
+        <v>262.6518</v>
       </c>
       <c r="Q3" t="n">
-        <v>929.37793</v>
+        <v>1326.6425</v>
       </c>
       <c r="R3" t="n">
-        <v>496.80185</v>
+        <v>1126.2233</v>
       </c>
       <c r="S3" t="n">
-        <v>750.3757000000001</v>
+        <v>1022.2767</v>
       </c>
       <c r="T3" t="n">
-        <v>4673.17911</v>
+        <v>5485.3291</v>
       </c>
       <c r="U3" t="n">
-        <v>502.66313</v>
+        <v>603.7759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1196.7644</v>
+        <v>1240.4912</v>
       </c>
       <c r="C4" t="n">
-        <v>683.9703</v>
+        <v>830.45285</v>
       </c>
       <c r="D4" t="n">
-        <v>139.3804</v>
+        <v>170.88635</v>
       </c>
       <c r="E4" t="n">
-        <v>728.4906999999999</v>
+        <v>916.83057</v>
       </c>
       <c r="F4" t="n">
-        <v>750.5436999999999</v>
+        <v>817.16092</v>
       </c>
       <c r="G4" t="n">
-        <v>213.0075</v>
+        <v>311.45724</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.4499</v>
+        <v>1216.28744</v>
       </c>
       <c r="I4" t="n">
-        <v>474.605</v>
+        <v>473.99284</v>
       </c>
       <c r="J4" t="n">
-        <v>8102.811</v>
+        <v>8328.50071</v>
       </c>
       <c r="K4" t="n">
-        <v>3403.5869</v>
+        <v>3536.75797</v>
       </c>
       <c r="L4" t="n">
-        <v>42.7494</v>
+        <v>128.55816</v>
       </c>
       <c r="M4" t="n">
-        <v>682.3971</v>
+        <v>1055.11415</v>
       </c>
       <c r="N4" t="n">
-        <v>2365.3671</v>
+        <v>3656.00015</v>
       </c>
       <c r="O4" t="n">
-        <v>11506.1062</v>
+        <v>13389.60794</v>
       </c>
       <c r="P4" t="n">
-        <v>262.6518</v>
+        <v>488.15831</v>
       </c>
       <c r="Q4" t="n">
-        <v>1326.6425</v>
+        <v>2661.27369</v>
       </c>
       <c r="R4" t="n">
-        <v>1126.2233</v>
+        <v>789.35644</v>
       </c>
       <c r="S4" t="n">
-        <v>1022.2767</v>
+        <v>603.98852</v>
       </c>
       <c r="T4" t="n">
-        <v>5485.3291</v>
+        <v>5234.24214</v>
       </c>
       <c r="U4" t="n">
-        <v>603.7759</v>
+        <v>1006.05735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1240.4912</v>
+        <v>1651.45777</v>
       </c>
       <c r="C5" t="n">
-        <v>830.45285</v>
+        <v>986.21714</v>
       </c>
       <c r="D5" t="n">
-        <v>170.88635</v>
+        <v>180.94063</v>
       </c>
       <c r="E5" t="n">
-        <v>916.83057</v>
+        <v>1026.73001</v>
       </c>
       <c r="F5" t="n">
-        <v>817.16092</v>
+        <v>810.52646</v>
       </c>
       <c r="G5" t="n">
-        <v>311.45724</v>
+        <v>330.55186</v>
       </c>
       <c r="H5" t="n">
-        <v>1216.28744</v>
+        <v>1436.70152</v>
       </c>
       <c r="I5" t="n">
-        <v>473.99284</v>
+        <v>432.93884</v>
       </c>
       <c r="J5" t="n">
-        <v>8328.50071</v>
+        <v>9077.36829</v>
       </c>
       <c r="K5" t="n">
-        <v>3536.75797</v>
+        <v>4320.22618</v>
       </c>
       <c r="L5" t="n">
-        <v>128.55816</v>
+        <v>56.12942</v>
       </c>
       <c r="M5" t="n">
-        <v>1055.11415</v>
+        <v>974.73676</v>
       </c>
       <c r="N5" t="n">
-        <v>3656.00015</v>
+        <v>5191.00205</v>
       </c>
       <c r="O5" t="n">
-        <v>13389.60794</v>
+        <v>16832.84917</v>
       </c>
       <c r="P5" t="n">
-        <v>488.15831</v>
+        <v>447.42801</v>
       </c>
       <c r="Q5" t="n">
-        <v>2661.27369</v>
+        <v>3111.18668</v>
       </c>
       <c r="R5" t="n">
-        <v>789.35644</v>
+        <v>624.42876</v>
       </c>
       <c r="S5" t="n">
-        <v>603.98852</v>
+        <v>723.8067</v>
       </c>
       <c r="T5" t="n">
-        <v>5234.24214</v>
+        <v>6421.96413</v>
       </c>
       <c r="U5" t="n">
-        <v>1006.05735</v>
+        <v>1072.7042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1651.45777</v>
+        <v>1637.37213</v>
       </c>
       <c r="C6" t="n">
-        <v>986.21714</v>
+        <v>854.98464</v>
       </c>
       <c r="D6" t="n">
-        <v>180.94063</v>
+        <v>186.5615</v>
       </c>
       <c r="E6" t="n">
-        <v>1026.73001</v>
+        <v>1244.579</v>
       </c>
       <c r="F6" t="n">
-        <v>810.52646</v>
+        <v>860.25175</v>
       </c>
       <c r="G6" t="n">
-        <v>330.55186</v>
+        <v>431.53847</v>
       </c>
       <c r="H6" t="n">
-        <v>1436.70152</v>
+        <v>1148.38886</v>
       </c>
       <c r="I6" t="n">
-        <v>432.93884</v>
+        <v>449.99946</v>
       </c>
       <c r="J6" t="n">
-        <v>9077.36829</v>
+        <v>10064.30454</v>
       </c>
       <c r="K6" t="n">
-        <v>4320.22618</v>
+        <v>4484.07395</v>
       </c>
       <c r="L6" t="n">
-        <v>56.12942</v>
+        <v>68.25843</v>
       </c>
       <c r="M6" t="n">
-        <v>974.73676</v>
+        <v>1020.63757</v>
       </c>
       <c r="N6" t="n">
-        <v>5191.00205</v>
+        <v>4280.84984</v>
       </c>
       <c r="O6" t="n">
-        <v>16832.84917</v>
+        <v>16301.46508</v>
       </c>
       <c r="P6" t="n">
-        <v>447.42801</v>
+        <v>546.72567</v>
       </c>
       <c r="Q6" t="n">
-        <v>3111.18668</v>
+        <v>2688.8575</v>
       </c>
       <c r="R6" t="n">
-        <v>624.42876</v>
+        <v>642.85429</v>
       </c>
       <c r="S6" t="n">
-        <v>723.8067</v>
+        <v>1034.75702</v>
       </c>
       <c r="T6" t="n">
-        <v>6421.96413</v>
+        <v>6127.02787</v>
       </c>
       <c r="U6" t="n">
-        <v>1072.7042</v>
+        <v>1197.20556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1637.37213</v>
+        <v>1198.6221</v>
       </c>
       <c r="C7" t="n">
-        <v>854.98464</v>
+        <v>858.4749</v>
       </c>
       <c r="D7" t="n">
-        <v>186.5615</v>
+        <v>252.407</v>
       </c>
       <c r="E7" t="n">
-        <v>1244.579</v>
+        <v>1390.1802</v>
       </c>
       <c r="F7" t="n">
-        <v>860.25175</v>
+        <v>900.6607</v>
       </c>
       <c r="G7" t="n">
-        <v>431.53847</v>
+        <v>482.8439</v>
       </c>
       <c r="H7" t="n">
-        <v>1148.38886</v>
+        <v>321.5844</v>
       </c>
       <c r="I7" t="n">
-        <v>449.99946</v>
+        <v>341.3273</v>
       </c>
       <c r="J7" t="n">
-        <v>10064.30454</v>
+        <v>10407.0581</v>
       </c>
       <c r="K7" t="n">
-        <v>4484.07395</v>
+        <v>3400.5803</v>
       </c>
       <c r="L7" t="n">
-        <v>68.25843</v>
+        <v>78.0085</v>
       </c>
       <c r="M7" t="n">
-        <v>1020.63757</v>
+        <v>597.5815</v>
       </c>
       <c r="N7" t="n">
-        <v>4280.84984</v>
+        <v>3751.2383</v>
       </c>
       <c r="O7" t="n">
-        <v>16301.46508</v>
+        <v>12865.0151</v>
       </c>
       <c r="P7" t="n">
-        <v>546.72567</v>
+        <v>705.096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2688.8575</v>
+        <v>1725.0949</v>
       </c>
       <c r="R7" t="n">
-        <v>642.85429</v>
+        <v>456.2534</v>
       </c>
       <c r="S7" t="n">
-        <v>1034.75702</v>
+        <v>980.277</v>
       </c>
       <c r="T7" t="n">
-        <v>6127.02787</v>
+        <v>4566.5712</v>
       </c>
       <c r="U7" t="n">
-        <v>1197.20556</v>
+        <v>1342.0351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.6221</v>
+        <v>1027.9683</v>
       </c>
       <c r="C8" t="n">
-        <v>858.4749</v>
+        <v>770.1335</v>
       </c>
       <c r="D8" t="n">
-        <v>252.407</v>
+        <v>157.6842</v>
       </c>
       <c r="E8" t="n">
-        <v>1390.1802</v>
+        <v>1424.1076</v>
       </c>
       <c r="F8" t="n">
-        <v>900.6607</v>
+        <v>776.2397999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>482.8439</v>
+        <v>516.7907</v>
       </c>
       <c r="H8" t="n">
-        <v>321.5844</v>
+        <v>293.9619</v>
       </c>
       <c r="I8" t="n">
-        <v>341.3273</v>
+        <v>347.7182</v>
       </c>
       <c r="J8" t="n">
-        <v>10407.0581</v>
+        <v>12196.2608</v>
       </c>
       <c r="K8" t="n">
-        <v>3400.5803</v>
+        <v>3986.4663</v>
       </c>
       <c r="L8" t="n">
-        <v>78.0085</v>
+        <v>68.748</v>
       </c>
       <c r="M8" t="n">
-        <v>597.5815</v>
+        <v>528.1314</v>
       </c>
       <c r="N8" t="n">
-        <v>3751.2383</v>
+        <v>3687.5375</v>
       </c>
       <c r="O8" t="n">
-        <v>12865.0151</v>
+        <v>12220.9945</v>
       </c>
       <c r="P8" t="n">
-        <v>705.096</v>
+        <v>702.9417999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1725.0949</v>
+        <v>1614.3347</v>
       </c>
       <c r="R8" t="n">
-        <v>456.2534</v>
+        <v>542.2334</v>
       </c>
       <c r="S8" t="n">
-        <v>980.277</v>
+        <v>940.0925</v>
       </c>
       <c r="T8" t="n">
-        <v>4566.5712</v>
+        <v>4110.7337</v>
       </c>
       <c r="U8" t="n">
-        <v>1342.0351</v>
+        <v>1395.3205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1027.9683</v>
+        <v>603.698</v>
       </c>
       <c r="C9" t="n">
-        <v>770.1335</v>
+        <v>885.101</v>
       </c>
       <c r="D9" t="n">
-        <v>157.6842</v>
+        <v>187.004</v>
       </c>
       <c r="E9" t="n">
-        <v>1424.1076</v>
+        <v>3071.124</v>
       </c>
       <c r="F9" t="n">
-        <v>776.2397999999999</v>
+        <v>765.938</v>
       </c>
       <c r="G9" t="n">
-        <v>516.7907</v>
+        <v>533.393</v>
       </c>
       <c r="H9" t="n">
-        <v>293.9619</v>
+        <v>360.958</v>
       </c>
       <c r="I9" t="n">
-        <v>347.7182</v>
+        <v>397.584</v>
       </c>
       <c r="J9" t="n">
-        <v>12196.2608</v>
+        <v>14026.787</v>
       </c>
       <c r="K9" t="n">
-        <v>3986.4663</v>
+        <v>4292.645</v>
       </c>
       <c r="L9" t="n">
-        <v>68.748</v>
+        <v>46.208</v>
       </c>
       <c r="M9" t="n">
-        <v>528.1314</v>
+        <v>693.602</v>
       </c>
       <c r="N9" t="n">
-        <v>3687.5375</v>
+        <v>4594.179</v>
       </c>
       <c r="O9" t="n">
-        <v>12220.9945</v>
+        <v>16681.977</v>
       </c>
       <c r="P9" t="n">
-        <v>702.9417999999999</v>
+        <v>954.335</v>
       </c>
       <c r="Q9" t="n">
-        <v>1614.3347</v>
+        <v>1945.495</v>
       </c>
       <c r="R9" t="n">
-        <v>542.2334</v>
+        <v>942.908</v>
       </c>
       <c r="S9" t="n">
-        <v>940.0925</v>
+        <v>1103.652</v>
       </c>
       <c r="T9" t="n">
-        <v>4110.7337</v>
+        <v>6943.926</v>
       </c>
       <c r="U9" t="n">
-        <v>1395.3205</v>
+        <v>1902.777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.698</v>
+        <v>486.7</v>
       </c>
       <c r="C10" t="n">
-        <v>885.101</v>
+        <v>1344.8</v>
       </c>
       <c r="D10" t="n">
-        <v>187.004</v>
+        <v>220.4</v>
       </c>
       <c r="E10" t="n">
-        <v>3071.124</v>
+        <v>2168.8</v>
       </c>
       <c r="F10" t="n">
-        <v>765.938</v>
+        <v>812.6</v>
       </c>
       <c r="G10" t="n">
-        <v>533.393</v>
+        <v>738.9</v>
       </c>
       <c r="H10" t="n">
-        <v>360.958</v>
+        <v>128.7</v>
       </c>
       <c r="I10" t="n">
-        <v>397.584</v>
+        <v>608.7</v>
       </c>
       <c r="J10" t="n">
-        <v>14026.787</v>
+        <v>15077.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4292.645</v>
+        <v>4693.7</v>
       </c>
       <c r="L10" t="n">
-        <v>46.208</v>
+        <v>59.3</v>
       </c>
       <c r="M10" t="n">
-        <v>693.602</v>
+        <v>909</v>
       </c>
       <c r="N10" t="n">
-        <v>4594.179</v>
+        <v>4597</v>
       </c>
       <c r="O10" t="n">
-        <v>16681.977</v>
+        <v>17508.9</v>
       </c>
       <c r="P10" t="n">
-        <v>954.335</v>
+        <v>594.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1945.495</v>
+        <v>2402.7</v>
       </c>
       <c r="R10" t="n">
-        <v>942.908</v>
+        <v>1467</v>
       </c>
       <c r="S10" t="n">
-        <v>1103.652</v>
+        <v>950.3</v>
       </c>
       <c r="T10" t="n">
-        <v>6943.926</v>
+        <v>7015.7</v>
       </c>
       <c r="U10" t="n">
-        <v>1902.777</v>
+        <v>1540.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>486.7</v>
+        <v>621.0212</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.8</v>
+        <v>1665.2365</v>
       </c>
       <c r="D11" t="n">
-        <v>220.4</v>
+        <v>280.6562</v>
       </c>
       <c r="E11" t="n">
-        <v>2168.8</v>
+        <v>2323.2264</v>
       </c>
       <c r="F11" t="n">
-        <v>812.6</v>
+        <v>1146.822</v>
       </c>
       <c r="G11" t="n">
-        <v>738.9</v>
+        <v>660.3089</v>
       </c>
       <c r="H11" t="n">
-        <v>128.7</v>
+        <v>164.7603</v>
       </c>
       <c r="I11" t="n">
-        <v>608.7</v>
+        <v>813.501</v>
       </c>
       <c r="J11" t="n">
-        <v>15077.8</v>
+        <v>14644.472</v>
       </c>
       <c r="K11" t="n">
-        <v>4693.7</v>
+        <v>4019.416</v>
       </c>
       <c r="L11" t="n">
-        <v>59.3</v>
+        <v>58.8492</v>
       </c>
       <c r="M11" t="n">
-        <v>909</v>
+        <v>1578.4255</v>
       </c>
       <c r="N11" t="n">
-        <v>4597</v>
+        <v>5814.0765</v>
       </c>
       <c r="O11" t="n">
-        <v>17508.9</v>
+        <v>21437.6097</v>
       </c>
       <c r="P11" t="n">
-        <v>594.3</v>
+        <v>999.6233</v>
       </c>
       <c r="Q11" t="n">
-        <v>2402.7</v>
+        <v>2962.6698</v>
       </c>
       <c r="R11" t="n">
-        <v>1467</v>
+        <v>1537.3893</v>
       </c>
       <c r="S11" t="n">
-        <v>950.3</v>
+        <v>1146.9204</v>
       </c>
       <c r="T11" t="n">
-        <v>7015.7</v>
+        <v>7908.3426</v>
       </c>
       <c r="U11" t="n">
-        <v>1540.3</v>
+        <v>2780.3122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.0212</v>
+        <v>781.7622</v>
       </c>
       <c r="C12" t="n">
-        <v>1665.2365</v>
+        <v>2273.9246</v>
       </c>
       <c r="D12" t="n">
-        <v>280.6562</v>
+        <v>287.677</v>
       </c>
       <c r="E12" t="n">
-        <v>2323.2264</v>
+        <v>2276.7668</v>
       </c>
       <c r="F12" t="n">
-        <v>1146.822</v>
+        <v>1002.6354</v>
       </c>
       <c r="G12" t="n">
-        <v>660.3089</v>
+        <v>763.3059</v>
       </c>
       <c r="H12" t="n">
-        <v>164.7603</v>
+        <v>105.5286</v>
       </c>
       <c r="I12" t="n">
-        <v>813.501</v>
+        <v>663.5559</v>
       </c>
       <c r="J12" t="n">
-        <v>14644.472</v>
+        <v>16231.5351</v>
       </c>
       <c r="K12" t="n">
-        <v>4019.416</v>
+        <v>4795.3403</v>
       </c>
       <c r="L12" t="n">
-        <v>58.8492</v>
+        <v>32.2099</v>
       </c>
       <c r="M12" t="n">
-        <v>1578.4255</v>
+        <v>1506.8062</v>
       </c>
       <c r="N12" t="n">
-        <v>5814.0765</v>
+        <v>4013.5892</v>
       </c>
       <c r="O12" t="n">
-        <v>21437.6097</v>
+        <v>20403.3086</v>
       </c>
       <c r="P12" t="n">
-        <v>999.6233</v>
+        <v>1172.5047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2962.6698</v>
+        <v>3079.7594</v>
       </c>
       <c r="R12" t="n">
-        <v>1537.3893</v>
+        <v>4423.17</v>
       </c>
       <c r="S12" t="n">
-        <v>1146.9204</v>
+        <v>1551.0906</v>
       </c>
       <c r="T12" t="n">
-        <v>7908.3426</v>
+        <v>9232.3146</v>
       </c>
       <c r="U12" t="n">
-        <v>2780.3122</v>
+        <v>3522.5234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.7622</v>
+        <v>1060.6005</v>
       </c>
       <c r="C13" t="n">
-        <v>2273.9246</v>
+        <v>3061.5312</v>
       </c>
       <c r="D13" t="n">
-        <v>287.677</v>
+        <v>445.0918</v>
       </c>
       <c r="E13" t="n">
-        <v>2276.7668</v>
+        <v>2677.6223</v>
       </c>
       <c r="F13" t="n">
-        <v>1002.6354</v>
+        <v>1046.7548</v>
       </c>
       <c r="G13" t="n">
-        <v>763.3059</v>
+        <v>713.0235</v>
       </c>
       <c r="H13" t="n">
-        <v>105.5286</v>
+        <v>176.7345</v>
       </c>
       <c r="I13" t="n">
-        <v>663.5559</v>
+        <v>610.7473</v>
       </c>
       <c r="J13" t="n">
-        <v>16231.5351</v>
+        <v>18925.5264</v>
       </c>
       <c r="K13" t="n">
-        <v>4795.3403</v>
+        <v>4797.2131</v>
       </c>
       <c r="L13" t="n">
-        <v>32.2099</v>
+        <v>29.7287</v>
       </c>
       <c r="M13" t="n">
-        <v>1506.8062</v>
+        <v>2540.5713</v>
       </c>
       <c r="N13" t="n">
-        <v>4013.5892</v>
+        <v>6658.6757</v>
       </c>
       <c r="O13" t="n">
-        <v>20403.3086</v>
+        <v>28380.8889</v>
       </c>
       <c r="P13" t="n">
-        <v>1172.5047</v>
+        <v>1347.9039</v>
       </c>
       <c r="Q13" t="n">
-        <v>3079.7594</v>
+        <v>3411.4163</v>
       </c>
       <c r="R13" t="n">
-        <v>4423.17</v>
+        <v>5855.3995</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.0906</v>
+        <v>1989.2449</v>
       </c>
       <c r="T13" t="n">
-        <v>9232.3146</v>
+        <v>12128.4462</v>
       </c>
       <c r="U13" t="n">
-        <v>3522.5234</v>
+        <v>4119.3611</v>
       </c>
     </row>
   </sheetData>
